--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rd9a221b9a38f41bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R35a52b09f8e74876"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R35a52b09f8e74876"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rf760e1e53b784388"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rf760e1e53b784388"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R97499efc14634170"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R97499efc14634170"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R778c855afe42435e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,18 +28,18 @@
     <x:font>
       <x:b/>
       <x:sz val="14"/>
-      <x:color rgb="FFFFFF"/>
+      <x:color rgb="FFFFFFFF"/>
       <x:name val="Calibri"/>
     </x:font>
     <x:font>
       <x:sz val="11"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="11"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
     </x:font>
   </x:fonts>
@@ -52,19 +52,19 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="4472C4"/>
+        <x:fgColor rgb="FF4472C4"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="F0F0F0"/>
+        <x:fgColor rgb="FFF0F0F0"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF00"/>
+        <x:fgColor rgb="FFFFFF00"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R778c855afe42435e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R07b26554ac0e4056"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R07b26554ac0e4056"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Re4b097dc5a204fce"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Re4b097dc5a204fce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R8cc6f250ecdf40a7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R8cc6f250ecdf40a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R341ce927404844a6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R341ce927404844a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rcc1b86e2686f450f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rcc1b86e2686f450f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rd0ec325d2934446e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rd0ec325d2934446e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R10d133feaca24607"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R10d133feaca24607"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rc267415c54a74d64"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rc267415c54a74d64"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R21861ae4025c43c3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R21861ae4025c43c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rd1fd18bb2fb1417f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rd1fd18bb2fb1417f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R10fec6f9316c40a9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R10fec6f9316c40a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Re3752c3cd896414b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Re3752c3cd896414b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Re6c837df9bed4ec1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Re6c837df9bed4ec1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R67cbb38d65514210"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R67cbb38d65514210"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rd5d150cb96684ee4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rd5d150cb96684ee4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R3943efd98f0c4edd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R3943efd98f0c4edd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rd898094db1014229"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rd898094db1014229"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rb1272f9c3a644ea0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rb1272f9c3a644ea0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rf412ffccc064496c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rf412ffccc064496c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R53eb080c31be4109"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R53eb080c31be4109"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rc913fe325e6440a7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rc913fe325e6440a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R768fb000159645b2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R768fb000159645b2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R8c29d357dfc24407"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R8c29d357dfc24407"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Re8bfb429d6314352"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Re8bfb429d6314352"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R5d769b65fb194ee3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R5d769b65fb194ee3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R388448f464d943c7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R388448f464d943c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R1f61fd30a6f649d8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R1f61fd30a6f649d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rebcb9f79ba65483b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rebcb9f79ba65483b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R013cd69fd63e41b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R013cd69fd63e41b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R4bda0390f32642f8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R4bda0390f32642f8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R9b0239d53f99462b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R9b0239d53f99462b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R2412b3a1de3b4ffd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R2412b3a1de3b4ffd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R965ac2324d124fce"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R965ac2324d124fce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R8b39fc71d6bc4f03"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R8b39fc71d6bc4f03"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R3bd324e15822427c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R3bd324e15822427c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R976bbae7d49c4d2c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R976bbae7d49c4d2c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R16dfdd482c634b7a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R16dfdd482c634b7a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R4791f9130f35454c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R4791f9130f35454c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R23aa2fc030a848c1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R23aa2fc030a848c1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R2561e16b7d574f7f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/17_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R2561e16b7d574f7f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R18e5073d66f44bba"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
